--- a/Finflux Automation Excels/Client/5048-CompondingPenalityCharge-MoraoriumOnPrinciple2-Writeoff-Disb2ndTranche.xlsx
+++ b/Finflux Automation Excels/Client/5048-CompondingPenalityCharge-MoraoriumOnPrinciple2-Writeoff-Disb2ndTranche.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
     <sheet name="Modify Transaction1" sheetId="2" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
-    <sheet name="Original Schedule" sheetId="4" r:id="rId4"/>
-    <sheet name="Repayment schedule" sheetId="5" r:id="rId5"/>
-    <sheet name="Transactions" sheetId="6" r:id="rId6"/>
-    <sheet name="ChargesTab" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="Original Schedule" sheetId="4" r:id="rId5"/>
+    <sheet name="Repayment schedule" sheetId="5" r:id="rId6"/>
+    <sheet name="Transactions" sheetId="6" r:id="rId7"/>
+    <sheet name="ChargesTab" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>clickondisburse</t>
   </si>
@@ -256,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,6 +283,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +577,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +620,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +662,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,6 +771,388 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9">
+        <v>42009</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9">
+        <v>42040</v>
+      </c>
+      <c r="D3" s="9">
+        <v>42064</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="13">
+        <v>51.01</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>51.01</v>
+      </c>
+      <c r="L3" s="13">
+        <v>51.01</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>51.01</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
+        <v>42068</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9">
+        <v>42068</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
+        <v>3548.99</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6451.01</v>
+      </c>
+      <c r="H5" s="13">
+        <v>41.76</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K5" s="13">
+        <v>42.05</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3548.99</v>
+      </c>
+      <c r="M5" s="13">
+        <v>3548.99</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>42.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9">
+        <v>42099</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13">
+        <v>614.42999999999995</v>
+      </c>
+      <c r="G6" s="13">
+        <v>5836.58</v>
+      </c>
+      <c r="H6" s="13">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>680.61</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>680.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>12%/365</f>
+        <v>3.2876712328767124E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="11">
+        <v>42009</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="11">
+        <v>42036</v>
+      </c>
+      <c r="D9">
+        <f>C9-C8</f>
+        <v>27</v>
+      </c>
+      <c r="E9" s="15">
+        <f>E8*D7*D9</f>
+        <v>44.38356164383562</v>
+      </c>
+      <c r="F9" s="15">
+        <f>E8+E9</f>
+        <v>5044.3835616438355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="11">
+        <v>42040</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D13" si="0">C10-C9</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="15">
+        <f>F9*D7*D10</f>
+        <v>6.6337098892850443</v>
+      </c>
+      <c r="F10" s="15">
+        <f>F9+E10</f>
+        <v>5051.0172715331209</v>
+      </c>
+      <c r="G10" s="15">
+        <f>E9+E10</f>
+        <v>51.017271533120663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="11">
+        <v>42064</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E11" s="15">
+        <f>F10*D7*D11</f>
+        <v>39.854602032918869</v>
+      </c>
+      <c r="F11" s="15">
+        <f>(F10)-(3600)</f>
+        <v>1451.0172715331209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="11">
+        <v>42068</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="15">
+        <f>F11*D12*D7</f>
+        <v>1.9081870968106796</v>
+      </c>
+      <c r="F12" s="15">
+        <f>F11+(5000)+42.05</f>
+        <v>6493.0672715331211</v>
+      </c>
+      <c r="G12" s="15">
+        <f>E11+E12</f>
+        <v>41.762789129729548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="11">
+        <v>42095</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E13" s="15">
+        <f>F12*D7*D13</f>
+        <v>57.637090300732368</v>
+      </c>
+      <c r="F13" s="15">
+        <f>F12+E13</f>
+        <v>6550.7043618338539</v>
+      </c>
+      <c r="I13" s="15">
+        <f>6451.01+42.05</f>
+        <v>6493.06</v>
+      </c>
+      <c r="J13" s="15">
+        <f>I13*D13*D7</f>
+        <v>57.637025753424666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="15">
+        <f>E13+E12</f>
+        <v>59.545277397543046</v>
+      </c>
+      <c r="I14" s="15">
+        <f>I13+J13</f>
+        <v>6550.6970257534249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="15">
+        <f>42.05*D7*31</f>
+        <v>0.42856438356164384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -1105,12 +1499,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -2061,11 +2455,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
